--- a/Excel_Macros/Cell_Units_Template.xlsx
+++ b/Excel_Macros/Cell_Units_Template.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook1" defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dan_Programming\Programs\MEA-Cruncher\Old_Scripts\Excel_Macros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dan_Programming\Programs\WaveAnalysisScripts\Excel_Macros\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OFS_Entry" sheetId="8" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>Noise Cutoff:</t>
   </si>
   <si>
-    <t>Use the Noise Cutoff cell on the next sheet to quickly identify potential noise units based on their number of spikes</t>
-  </si>
-  <si>
     <t>PotentialNoise</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>Noise?</t>
+  </si>
+  <si>
+    <t>You can use the Noise Cutoff cell on the next sheet to quickly identify potential noise units based on their number of spikes</t>
   </si>
 </sst>
 </file>
@@ -363,8 +363,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="OFSTbl" displayName="OFSTbl" ref="A10:J11" insertRow="1" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="A10:J11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="OFSTbl" displayName="OFSTbl" ref="A9:J10" insertRow="1" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A9:J10"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Channel" dataDxfId="19"/>
     <tableColumn id="2" name="Waveforms" dataDxfId="18"/>
@@ -671,10 +671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,55 +716,52 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A7" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
+      <c r="J9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -775,9 +773,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H484"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -823,10 +822,10 @@
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>0</v>
@@ -12141,7 +12140,7 @@
         <v>56</v>
       </c>
       <c r="B457" s="14">
-        <f t="shared" ref="B457:B488" si="17">MOD(ROW(A457)-5,MaxUnits)</f>
+        <f t="shared" ref="B457:B484" si="17">MOD(ROW(A457)-5,MaxUnits)</f>
         <v>4</v>
       </c>
       <c r="C457" s="14" t="str">

--- a/Excel_Macros/Cell_Units_Template.xlsx
+++ b/Excel_Macros/Cell_Units_Template.xlsx
@@ -287,15 +287,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -365,6 +356,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -392,45 +392,45 @@
   <tableColumns count="13">
     <tableColumn id="1" name="Name" dataDxfId="23"/>
     <tableColumn id="2" name="Samples" dataDxfId="22"/>
-    <tableColumn id="13" name="Waveforms" dataDxfId="0"/>
-    <tableColumn id="12" name="Blank" dataDxfId="1"/>
-    <tableColumn id="11" name="Unsorted" dataDxfId="2"/>
-    <tableColumn id="3" name="a" dataDxfId="21"/>
-    <tableColumn id="4" name="b" dataDxfId="20"/>
-    <tableColumn id="5" name="c" dataDxfId="19"/>
-    <tableColumn id="6" name="d" dataDxfId="18"/>
-    <tableColumn id="7" name="e" dataDxfId="17"/>
-    <tableColumn id="8" name="f" dataDxfId="16"/>
-    <tableColumn id="9" name="g" dataDxfId="15"/>
-    <tableColumn id="10" name="h" dataDxfId="14"/>
+    <tableColumn id="13" name="Waveforms" dataDxfId="21"/>
+    <tableColumn id="12" name="Blank" dataDxfId="20"/>
+    <tableColumn id="11" name="Unsorted" dataDxfId="19"/>
+    <tableColumn id="3" name="a" dataDxfId="18"/>
+    <tableColumn id="4" name="b" dataDxfId="17"/>
+    <tableColumn id="5" name="c" dataDxfId="16"/>
+    <tableColumn id="6" name="d" dataDxfId="15"/>
+    <tableColumn id="7" name="e" dataDxfId="14"/>
+    <tableColumn id="8" name="f" dataDxfId="13"/>
+    <tableColumn id="9" name="g" dataDxfId="12"/>
+    <tableColumn id="10" name="h" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ValidationTbl" displayName="ValidationTbl" ref="A4:I484" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ValidationTbl" displayName="ValidationTbl" ref="A4:I484" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A4:I484"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="RowOffset" dataDxfId="11">
+    <tableColumn id="1" name="RowOffset" dataDxfId="8">
       <calculatedColumnFormula>_xlfn.FLOOR.MATH((ROW(A5)-5)/MaxUnits)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="ColOffset" dataDxfId="10">
+    <tableColumn id="2" name="ColOffset" dataDxfId="7">
       <calculatedColumnFormula>MOD(ROW(A5)-5,MaxUnits)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="UnitName" dataDxfId="9">
+    <tableColumn id="3" name="UnitName" dataDxfId="6">
       <calculatedColumnFormula>OFFSET(OFSTbl[Name],ValidationTbl[[#This Row],[RowOffset]],0,1,1)&amp;OFFSET(OFSTbl[[#Headers],[a]],0,ValidationTbl[[#This Row],[ColOffset]],1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="NumSpikes" dataDxfId="8">
+    <tableColumn id="4" name="NumSpikes" dataDxfId="5">
       <calculatedColumnFormula>OFFSET(OFSTbl[a],ValidationTbl[[#This Row],[RowOffset]],ValidationTbl[[#This Row],[ColOffset]],1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="PotentialNoise" dataDxfId="7">
+    <tableColumn id="5" name="PotentialNoise" dataDxfId="4">
       <calculatedColumnFormula>IF(ValidationTbl[[#This Row],[NumSpikes]]&lt;NoiseCutoff,"x","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Bad?" dataDxfId="6"/>
-    <tableColumn id="6" name="ipRGC?" dataDxfId="5"/>
-    <tableColumn id="7" name="Same?" dataDxfId="4"/>
-    <tableColumn id="9" name="KickOut?" dataDxfId="3"/>
+    <tableColumn id="8" name="Bad?" dataDxfId="3"/>
+    <tableColumn id="6" name="ipRGC?" dataDxfId="2"/>
+    <tableColumn id="7" name="Same?" dataDxfId="1"/>
+    <tableColumn id="9" name="KickOut?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -702,14 +702,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="5" style="1" bestFit="1" customWidth="1"/>

--- a/Excel_Macros/Cell_Units_Template.xlsx
+++ b/Excel_Macros/Cell_Units_Template.xlsx
@@ -16,8 +16,8 @@
     <sheet name="Validation" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="MaxUnits">Validation!$B$1</definedName>
-    <definedName name="NoiseCutoff">Validation!$B$2</definedName>
+    <definedName name="MaxUnits">Validation!$D$1</definedName>
+    <definedName name="NoiseCutoff">Validation!$D$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -287,54 +287,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -373,6 +325,54 @@
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -387,50 +387,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="OFSTbl" displayName="OFSTbl" ref="A9:M10" insertRow="1" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="OFSTbl" displayName="OFSTbl" ref="A9:M10" insertRow="1" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A9:M10"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Name" dataDxfId="23"/>
-    <tableColumn id="2" name="Samples" dataDxfId="22"/>
-    <tableColumn id="13" name="Waveforms" dataDxfId="21"/>
-    <tableColumn id="12" name="Blank" dataDxfId="20"/>
-    <tableColumn id="11" name="Unsorted" dataDxfId="19"/>
-    <tableColumn id="3" name="a" dataDxfId="18"/>
-    <tableColumn id="4" name="b" dataDxfId="17"/>
-    <tableColumn id="5" name="c" dataDxfId="16"/>
-    <tableColumn id="6" name="d" dataDxfId="15"/>
-    <tableColumn id="7" name="e" dataDxfId="14"/>
-    <tableColumn id="8" name="f" dataDxfId="13"/>
-    <tableColumn id="9" name="g" dataDxfId="12"/>
-    <tableColumn id="10" name="h" dataDxfId="11"/>
+    <tableColumn id="1" name="Name" dataDxfId="12"/>
+    <tableColumn id="2" name="Samples" dataDxfId="11"/>
+    <tableColumn id="13" name="Waveforms" dataDxfId="10"/>
+    <tableColumn id="12" name="Blank" dataDxfId="9"/>
+    <tableColumn id="11" name="Unsorted" dataDxfId="8"/>
+    <tableColumn id="3" name="a" dataDxfId="7"/>
+    <tableColumn id="4" name="b" dataDxfId="6"/>
+    <tableColumn id="5" name="c" dataDxfId="5"/>
+    <tableColumn id="6" name="d" dataDxfId="4"/>
+    <tableColumn id="7" name="e" dataDxfId="3"/>
+    <tableColumn id="8" name="f" dataDxfId="2"/>
+    <tableColumn id="9" name="g" dataDxfId="1"/>
+    <tableColumn id="10" name="h" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ValidationTbl" displayName="ValidationTbl" ref="A4:I484" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ValidationTbl" displayName="ValidationTbl" ref="A4:I484" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A4:I484"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="RowOffset" dataDxfId="8">
+    <tableColumn id="1" name="RowOffset" dataDxfId="23">
       <calculatedColumnFormula>_xlfn.FLOOR.MATH((ROW(A5)-5)/MaxUnits)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="ColOffset" dataDxfId="7">
+    <tableColumn id="2" name="ColOffset" dataDxfId="22">
       <calculatedColumnFormula>MOD(ROW(A5)-5,MaxUnits)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="UnitName" dataDxfId="6">
+    <tableColumn id="3" name="UnitName" dataDxfId="21">
       <calculatedColumnFormula>OFFSET(OFSTbl[Name],ValidationTbl[[#This Row],[RowOffset]],0,1,1)&amp;OFFSET(OFSTbl[[#Headers],[a]],0,ValidationTbl[[#This Row],[ColOffset]],1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="NumSpikes" dataDxfId="5">
+    <tableColumn id="4" name="NumSpikes" dataDxfId="20">
       <calculatedColumnFormula>OFFSET(OFSTbl[a],ValidationTbl[[#This Row],[RowOffset]],ValidationTbl[[#This Row],[ColOffset]],1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="PotentialNoise" dataDxfId="4">
+    <tableColumn id="5" name="PotentialNoise" dataDxfId="19">
       <calculatedColumnFormula>IF(ValidationTbl[[#This Row],[NumSpikes]]&lt;NoiseCutoff,"x","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Bad?" dataDxfId="3"/>
-    <tableColumn id="6" name="ipRGC?" dataDxfId="2"/>
-    <tableColumn id="7" name="Same?" dataDxfId="1"/>
-    <tableColumn id="9" name="KickOut?" dataDxfId="0"/>
+    <tableColumn id="8" name="Bad?" dataDxfId="18"/>
+    <tableColumn id="6" name="ipRGC?" dataDxfId="17"/>
+    <tableColumn id="7" name="Same?" dataDxfId="16"/>
+    <tableColumn id="9" name="KickOut?" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -703,7 +703,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,12 +820,14 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I484"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="5" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="5" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
@@ -837,18 +839,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13">
+      <c r="D1" s="13">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="10">
+      <c r="D2" s="10">
         <v>400</v>
       </c>
     </row>

--- a/Excel_Macros/Cell_Units_Template.xlsx
+++ b/Excel_Macros/Cell_Units_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dan_Programming\Programs\WaveAnalysisScripts\Excel_Macros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dan_Programming\Git_Repos\WaveAnalysisScripts\Excel_Macros\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OFS_Entry" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ipRGC?</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Blank</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -273,7 +276,58 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="27">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -325,54 +379,6 @@
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -387,50 +393,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="OFSTbl" displayName="OFSTbl" ref="A9:M10" insertRow="1" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="OFSTbl" displayName="OFSTbl" ref="A9:M10" insertRow="1" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A9:M10"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Name" dataDxfId="12"/>
-    <tableColumn id="2" name="Samples" dataDxfId="11"/>
-    <tableColumn id="13" name="Waveforms" dataDxfId="10"/>
-    <tableColumn id="12" name="Blank" dataDxfId="9"/>
-    <tableColumn id="11" name="Unsorted" dataDxfId="8"/>
-    <tableColumn id="3" name="a" dataDxfId="7"/>
-    <tableColumn id="4" name="b" dataDxfId="6"/>
-    <tableColumn id="5" name="c" dataDxfId="5"/>
-    <tableColumn id="6" name="d" dataDxfId="4"/>
-    <tableColumn id="7" name="e" dataDxfId="3"/>
-    <tableColumn id="8" name="f" dataDxfId="2"/>
-    <tableColumn id="9" name="g" dataDxfId="1"/>
-    <tableColumn id="10" name="h" dataDxfId="0"/>
+    <tableColumn id="1" name="Name" dataDxfId="24"/>
+    <tableColumn id="2" name="Samples" dataDxfId="23"/>
+    <tableColumn id="13" name="Waveforms" dataDxfId="22"/>
+    <tableColumn id="12" name="Blank" dataDxfId="21"/>
+    <tableColumn id="11" name="Unsorted" dataDxfId="20"/>
+    <tableColumn id="3" name="a" dataDxfId="19"/>
+    <tableColumn id="4" name="b" dataDxfId="18"/>
+    <tableColumn id="5" name="c" dataDxfId="17"/>
+    <tableColumn id="6" name="d" dataDxfId="16"/>
+    <tableColumn id="7" name="e" dataDxfId="15"/>
+    <tableColumn id="8" name="f" dataDxfId="14"/>
+    <tableColumn id="9" name="g" dataDxfId="13"/>
+    <tableColumn id="10" name="h" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ValidationTbl" displayName="ValidationTbl" ref="A4:I484" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A4:I484"/>
-  <tableColumns count="9">
-    <tableColumn id="1" name="RowOffset" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ValidationTbl" displayName="ValidationTbl" ref="A4:J484" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A4:J484"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="RowOffset" dataDxfId="9">
       <calculatedColumnFormula>_xlfn.FLOOR.MATH((ROW(A5)-5)/MaxUnits)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="ColOffset" dataDxfId="22">
+    <tableColumn id="2" name="ColOffset" dataDxfId="8">
       <calculatedColumnFormula>MOD(ROW(A5)-5,MaxUnits)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="UnitName" dataDxfId="21">
+    <tableColumn id="3" name="UnitName" dataDxfId="7">
       <calculatedColumnFormula>OFFSET(OFSTbl[Name],ValidationTbl[[#This Row],[RowOffset]],0,1,1)&amp;OFFSET(OFSTbl[[#Headers],[a]],0,ValidationTbl[[#This Row],[ColOffset]],1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="NumSpikes" dataDxfId="20">
+    <tableColumn id="4" name="NumSpikes" dataDxfId="6">
       <calculatedColumnFormula>OFFSET(OFSTbl[a],ValidationTbl[[#This Row],[RowOffset]],ValidationTbl[[#This Row],[ColOffset]],1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="PotentialNoise" dataDxfId="19">
+    <tableColumn id="5" name="PotentialNoise" dataDxfId="5">
       <calculatedColumnFormula>IF(ValidationTbl[[#This Row],[NumSpikes]]&lt;NoiseCutoff,"x","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Bad?" dataDxfId="18"/>
-    <tableColumn id="6" name="ipRGC?" dataDxfId="17"/>
-    <tableColumn id="7" name="Same?" dataDxfId="16"/>
-    <tableColumn id="9" name="KickOut?" dataDxfId="15"/>
+    <tableColumn id="8" name="Bad?" dataDxfId="4"/>
+    <tableColumn id="6" name="ipRGC?" dataDxfId="3"/>
+    <tableColumn id="7" name="Same?" dataDxfId="2"/>
+    <tableColumn id="9" name="KickOut?" dataDxfId="1"/>
+    <tableColumn id="10" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -702,7 +709,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -818,10 +825,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I484"/>
+  <dimension ref="A1:J484"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,10 +842,11 @@
     <col min="7" max="7" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="5"/>
     <col min="9" max="9" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="5"/>
+    <col min="10" max="10" width="64" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C1" s="12" t="s">
         <v>10</v>
       </c>
@@ -846,7 +854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="11" t="s">
         <v>20</v>
       </c>
@@ -854,7 +862,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -882,8 +890,11 @@
       <c r="I4" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A68" si="0">_xlfn.FLOOR.MATH((ROW(A5)-5)/MaxUnits)</f>
         <v>0</v>
@@ -908,8 +919,9 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -934,8 +946,9 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -960,8 +973,9 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -986,8 +1000,9 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1012,8 +1027,9 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1038,8 +1054,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1064,8 +1081,9 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1090,8 +1108,9 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1116,8 +1135,9 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1142,8 +1162,9 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1168,8 +1189,9 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1194,8 +1216,9 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1220,8 +1243,9 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1246,8 +1270,9 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1272,8 +1297,9 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1298,8 +1324,9 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1324,8 +1351,9 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1350,8 +1378,9 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1376,8 +1405,9 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1402,8 +1432,9 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1428,8 +1459,9 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1454,8 +1486,9 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1480,8 +1513,9 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1506,8 +1540,9 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1532,8 +1567,9 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1558,8 +1594,9 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1584,8 +1621,9 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1610,8 +1648,9 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1636,8 +1675,9 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1662,8 +1702,9 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1688,8 +1729,9 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1714,8 +1756,9 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1740,8 +1783,9 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1766,8 +1810,9 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1792,8 +1837,9 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1818,8 +1864,9 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1844,8 +1891,9 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1870,8 +1918,9 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1896,8 +1945,9 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1922,8 +1972,9 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1948,8 +1999,9 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1974,8 +2026,9 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2000,8 +2053,9 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2026,8 +2080,9 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2052,8 +2107,9 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2078,8 +2134,9 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2104,8 +2161,9 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2130,8 +2188,9 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2156,8 +2215,9 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2182,8 +2242,9 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2208,8 +2269,9 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2234,8 +2296,9 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2260,8 +2323,9 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2286,8 +2350,9 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2312,8 +2377,9 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2338,8 +2404,9 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2364,8 +2431,9 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2390,8 +2458,9 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2416,8 +2485,9 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2442,8 +2512,9 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2468,8 +2539,9 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2494,8 +2566,9 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2520,8 +2593,9 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2546,8 +2620,9 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f t="shared" ref="A69:A132" si="2">_xlfn.FLOOR.MATH((ROW(A69)-5)/MaxUnits)</f>
         <v>8</v>
@@ -2572,8 +2647,9 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -2598,8 +2674,9 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -2624,8 +2701,9 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -2650,8 +2728,9 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -2676,8 +2755,9 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -2702,8 +2782,9 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -2728,8 +2809,9 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -2754,8 +2836,9 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2780,8 +2863,9 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2806,8 +2890,9 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2832,8 +2917,9 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2858,8 +2944,9 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2884,8 +2971,9 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2910,8 +2998,9 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2936,8 +3025,9 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -2962,8 +3052,9 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -2988,8 +3079,9 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -3014,8 +3106,9 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -3040,8 +3133,9 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -3066,8 +3160,9 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -3092,8 +3187,9 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -3118,8 +3214,9 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -3144,8 +3241,9 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="1"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -3170,8 +3268,9 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="1"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -3196,8 +3295,9 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="1"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -3222,8 +3322,9 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -3248,8 +3349,9 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -3274,8 +3376,9 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -3300,8 +3403,9 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -3326,8 +3430,9 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -3352,8 +3457,9 @@
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -3378,8 +3484,9 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="1"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -3404,8 +3511,9 @@
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="1"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -3430,8 +3538,9 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -3456,8 +3565,9 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="1"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -3482,8 +3592,9 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -3508,8 +3619,9 @@
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -3534,8 +3646,9 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -3560,8 +3673,9 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -3586,8 +3700,9 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -3612,8 +3727,9 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -3638,8 +3754,9 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -3664,8 +3781,9 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -3690,8 +3808,9 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -3716,8 +3835,9 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -3742,8 +3862,9 @@
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="1"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -3768,8 +3889,9 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -3794,8 +3916,9 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -3820,8 +3943,9 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="1"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -3846,8 +3970,9 @@
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="1"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -3872,8 +3997,9 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="1"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -3898,8 +4024,9 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -3924,8 +4051,9 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -3950,8 +4078,9 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="1"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -3976,8 +4105,9 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="1"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -4002,8 +4132,9 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="1"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -4028,8 +4159,9 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="1"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -4054,8 +4186,9 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="1"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -4080,8 +4213,9 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" s="1"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -4106,8 +4240,9 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="1"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -4132,8 +4267,9 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="1"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -4158,8 +4294,9 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="1"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -4184,8 +4321,9 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="1"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -4210,8 +4348,9 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="1"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <f t="shared" ref="A133:A196" si="4">_xlfn.FLOOR.MATH((ROW(A133)-5)/MaxUnits)</f>
         <v>16</v>
@@ -4236,8 +4375,9 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -4262,8 +4402,9 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="1"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -4288,8 +4429,9 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="1"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -4314,8 +4456,9 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="1"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -4340,8 +4483,9 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="1"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -4366,8 +4510,9 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" s="1"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -4392,8 +4537,9 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="1"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -4418,8 +4564,9 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="1"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -4444,8 +4591,9 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="1"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -4470,8 +4618,9 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" s="1"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -4496,8 +4645,9 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="1"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -4522,8 +4672,9 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" s="1"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -4548,8 +4699,9 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="1"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -4574,8 +4726,9 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" s="1"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -4600,8 +4753,9 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" s="1"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -4626,8 +4780,9 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" s="1"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -4652,8 +4807,9 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" s="1"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -4678,8 +4834,9 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="1"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -4704,8 +4861,9 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" s="1"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -4730,8 +4888,9 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" s="1"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -4756,8 +4915,9 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" s="1"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -4782,8 +4942,9 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" s="1"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -4808,8 +4969,9 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155" s="1"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -4834,8 +4996,9 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" s="1"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -4860,8 +5023,9 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" s="1"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -4886,8 +5050,9 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" s="1"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -4912,8 +5077,9 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" s="1"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -4938,8 +5104,9 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" s="1"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -4964,8 +5131,9 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" s="1"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -4990,8 +5158,9 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" s="1"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -5016,8 +5185,9 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" s="1"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -5042,8 +5212,9 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" s="1"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -5068,8 +5239,9 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" s="1"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -5094,8 +5266,9 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" s="1"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -5120,8 +5293,9 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" s="1"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -5146,8 +5320,9 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" s="1"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -5172,8 +5347,9 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" s="1"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -5198,8 +5374,9 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" s="1"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -5224,8 +5401,9 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" s="1"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -5250,8 +5428,9 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" s="1"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -5276,8 +5455,9 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" s="1"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -5302,8 +5482,9 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" s="1"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -5328,8 +5509,9 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" s="1"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -5354,8 +5536,9 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" s="1"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -5380,8 +5563,9 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="1"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -5406,8 +5590,9 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" s="1"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -5432,8 +5617,9 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" s="1"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -5458,8 +5644,9 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" s="1"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -5484,8 +5671,9 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181" s="1"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -5510,8 +5698,9 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182" s="1"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -5536,8 +5725,9 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" s="1"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -5562,8 +5752,9 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184" s="1"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -5588,8 +5779,9 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" s="1"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -5614,8 +5806,9 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" s="1"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -5640,8 +5833,9 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187" s="1"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -5666,8 +5860,9 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188" s="1"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -5692,8 +5887,9 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189" s="1"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -5718,8 +5914,9 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190" s="1"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -5744,8 +5941,9 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191" s="1"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -5770,8 +5968,9 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192" s="1"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -5796,8 +5995,9 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J193" s="1"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -5822,8 +6022,9 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J194" s="1"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -5848,8 +6049,9 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J195" s="1"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -5874,8 +6076,9 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J196" s="1"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <f t="shared" ref="A197:A260" si="6">_xlfn.FLOOR.MATH((ROW(A197)-5)/MaxUnits)</f>
         <v>24</v>
@@ -5900,8 +6103,9 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J197" s="1"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <f t="shared" si="6"/>
         <v>24</v>
@@ -5926,8 +6130,9 @@
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J198" s="1"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <f t="shared" si="6"/>
         <v>24</v>
@@ -5952,8 +6157,9 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J199" s="1"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <f t="shared" si="6"/>
         <v>24</v>
@@ -5978,8 +6184,9 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J200" s="1"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <f t="shared" si="6"/>
         <v>24</v>
@@ -6004,8 +6211,9 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J201" s="1"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <f t="shared" si="6"/>
         <v>24</v>
@@ -6030,8 +6238,9 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J202" s="1"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <f t="shared" si="6"/>
         <v>24</v>
@@ -6056,8 +6265,9 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J203" s="1"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <f t="shared" si="6"/>
         <v>24</v>
@@ -6082,8 +6292,9 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J204" s="1"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <f t="shared" si="6"/>
         <v>25</v>
@@ -6108,8 +6319,9 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J205" s="1"/>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <f t="shared" si="6"/>
         <v>25</v>
@@ -6134,8 +6346,9 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J206" s="1"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <f t="shared" si="6"/>
         <v>25</v>
@@ -6160,8 +6373,9 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J207" s="1"/>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <f t="shared" si="6"/>
         <v>25</v>
@@ -6186,8 +6400,9 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J208" s="1"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <f t="shared" si="6"/>
         <v>25</v>
@@ -6212,8 +6427,9 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J209" s="1"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <f t="shared" si="6"/>
         <v>25</v>
@@ -6238,8 +6454,9 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J210" s="1"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <f t="shared" si="6"/>
         <v>25</v>
@@ -6264,8 +6481,9 @@
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J211" s="1"/>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <f t="shared" si="6"/>
         <v>25</v>
@@ -6290,8 +6508,9 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J212" s="1"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <f t="shared" si="6"/>
         <v>26</v>
@@ -6316,8 +6535,9 @@
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J213" s="1"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <f t="shared" si="6"/>
         <v>26</v>
@@ -6342,8 +6562,9 @@
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J214" s="1"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <f t="shared" si="6"/>
         <v>26</v>
@@ -6368,8 +6589,9 @@
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J215" s="1"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <f t="shared" si="6"/>
         <v>26</v>
@@ -6394,8 +6616,9 @@
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J216" s="1"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <f t="shared" si="6"/>
         <v>26</v>
@@ -6420,8 +6643,9 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J217" s="1"/>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <f t="shared" si="6"/>
         <v>26</v>
@@ -6446,8 +6670,9 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J218" s="1"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <f t="shared" si="6"/>
         <v>26</v>
@@ -6472,8 +6697,9 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J219" s="1"/>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <f t="shared" si="6"/>
         <v>26</v>
@@ -6498,8 +6724,9 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J220" s="1"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <f t="shared" si="6"/>
         <v>27</v>
@@ -6524,8 +6751,9 @@
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J221" s="1"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <f t="shared" si="6"/>
         <v>27</v>
@@ -6550,8 +6778,9 @@
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J222" s="1"/>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <f t="shared" si="6"/>
         <v>27</v>
@@ -6576,8 +6805,9 @@
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J223" s="1"/>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <f t="shared" si="6"/>
         <v>27</v>
@@ -6602,8 +6832,9 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J224" s="1"/>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <f t="shared" si="6"/>
         <v>27</v>
@@ -6628,8 +6859,9 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J225" s="1"/>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <f t="shared" si="6"/>
         <v>27</v>
@@ -6654,8 +6886,9 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J226" s="1"/>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <f t="shared" si="6"/>
         <v>27</v>
@@ -6680,8 +6913,9 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J227" s="1"/>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <f t="shared" si="6"/>
         <v>27</v>
@@ -6706,8 +6940,9 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J228" s="1"/>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <f t="shared" si="6"/>
         <v>28</v>
@@ -6732,8 +6967,9 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J229" s="1"/>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <f t="shared" si="6"/>
         <v>28</v>
@@ -6758,8 +6994,9 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J230" s="1"/>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <f t="shared" si="6"/>
         <v>28</v>
@@ -6784,8 +7021,9 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J231" s="1"/>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <f t="shared" si="6"/>
         <v>28</v>
@@ -6810,8 +7048,9 @@
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J232" s="1"/>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <f t="shared" si="6"/>
         <v>28</v>
@@ -6836,8 +7075,9 @@
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J233" s="1"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <f t="shared" si="6"/>
         <v>28</v>
@@ -6862,8 +7102,9 @@
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J234" s="1"/>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <f t="shared" si="6"/>
         <v>28</v>
@@ -6888,8 +7129,9 @@
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J235" s="1"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <f t="shared" si="6"/>
         <v>28</v>
@@ -6914,8 +7156,9 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J236" s="1"/>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <f t="shared" si="6"/>
         <v>29</v>
@@ -6940,8 +7183,9 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J237" s="1"/>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <f t="shared" si="6"/>
         <v>29</v>
@@ -6966,8 +7210,9 @@
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J238" s="1"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <f t="shared" si="6"/>
         <v>29</v>
@@ -6992,8 +7237,9 @@
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J239" s="1"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <f t="shared" si="6"/>
         <v>29</v>
@@ -7018,8 +7264,9 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J240" s="1"/>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <f t="shared" si="6"/>
         <v>29</v>
@@ -7044,8 +7291,9 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J241" s="1"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <f t="shared" si="6"/>
         <v>29</v>
@@ -7070,8 +7318,9 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J242" s="1"/>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <f t="shared" si="6"/>
         <v>29</v>
@@ -7096,8 +7345,9 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J243" s="1"/>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <f t="shared" si="6"/>
         <v>29</v>
@@ -7122,8 +7372,9 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J244" s="1"/>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -7148,8 +7399,9 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J245" s="1"/>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -7174,8 +7426,9 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J246" s="1"/>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -7200,8 +7453,9 @@
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J247" s="1"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -7226,8 +7480,9 @@
       <c r="G248" s="1"/>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J248" s="1"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -7252,8 +7507,9 @@
       <c r="G249" s="1"/>
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J249" s="1"/>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -7278,8 +7534,9 @@
       <c r="G250" s="1"/>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J250" s="1"/>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -7304,8 +7561,9 @@
       <c r="G251" s="1"/>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J251" s="1"/>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <f t="shared" si="6"/>
         <v>30</v>
@@ -7330,8 +7588,9 @@
       <c r="G252" s="1"/>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J252" s="1"/>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <f t="shared" si="6"/>
         <v>31</v>
@@ -7356,8 +7615,9 @@
       <c r="G253" s="1"/>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J253" s="1"/>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <f t="shared" si="6"/>
         <v>31</v>
@@ -7382,8 +7642,9 @@
       <c r="G254" s="1"/>
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J254" s="1"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <f t="shared" si="6"/>
         <v>31</v>
@@ -7408,8 +7669,9 @@
       <c r="G255" s="1"/>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J255" s="1"/>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <f t="shared" si="6"/>
         <v>31</v>
@@ -7434,8 +7696,9 @@
       <c r="G256" s="1"/>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J256" s="1"/>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <f t="shared" si="6"/>
         <v>31</v>
@@ -7460,8 +7723,9 @@
       <c r="G257" s="1"/>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J257" s="1"/>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <f t="shared" si="6"/>
         <v>31</v>
@@ -7486,8 +7750,9 @@
       <c r="G258" s="1"/>
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J258" s="1"/>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <f t="shared" si="6"/>
         <v>31</v>
@@ -7512,8 +7777,9 @@
       <c r="G259" s="1"/>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J259" s="1"/>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <f t="shared" si="6"/>
         <v>31</v>
@@ -7538,8 +7804,9 @@
       <c r="G260" s="1"/>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J260" s="1"/>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <f t="shared" ref="A261:A324" si="8">_xlfn.FLOOR.MATH((ROW(A261)-5)/MaxUnits)</f>
         <v>32</v>
@@ -7564,8 +7831,9 @@
       <c r="G261" s="1"/>
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J261" s="1"/>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <f t="shared" si="8"/>
         <v>32</v>
@@ -7590,8 +7858,9 @@
       <c r="G262" s="1"/>
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J262" s="1"/>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <f t="shared" si="8"/>
         <v>32</v>
@@ -7616,8 +7885,9 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J263" s="1"/>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <f t="shared" si="8"/>
         <v>32</v>
@@ -7642,8 +7912,9 @@
       <c r="G264" s="1"/>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J264" s="1"/>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <f t="shared" si="8"/>
         <v>32</v>
@@ -7668,8 +7939,9 @@
       <c r="G265" s="1"/>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J265" s="1"/>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <f t="shared" si="8"/>
         <v>32</v>
@@ -7694,8 +7966,9 @@
       <c r="G266" s="1"/>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J266" s="1"/>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <f t="shared" si="8"/>
         <v>32</v>
@@ -7720,8 +7993,9 @@
       <c r="G267" s="1"/>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J267" s="1"/>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <f t="shared" si="8"/>
         <v>32</v>
@@ -7746,8 +8020,9 @@
       <c r="G268" s="1"/>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J268" s="1"/>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <f t="shared" si="8"/>
         <v>33</v>
@@ -7772,8 +8047,9 @@
       <c r="G269" s="1"/>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J269" s="1"/>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <f t="shared" si="8"/>
         <v>33</v>
@@ -7798,8 +8074,9 @@
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J270" s="1"/>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <f t="shared" si="8"/>
         <v>33</v>
@@ -7824,8 +8101,9 @@
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J271" s="1"/>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <f t="shared" si="8"/>
         <v>33</v>
@@ -7850,8 +8128,9 @@
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J272" s="1"/>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <f t="shared" si="8"/>
         <v>33</v>
@@ -7876,8 +8155,9 @@
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J273" s="1"/>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <f t="shared" si="8"/>
         <v>33</v>
@@ -7902,8 +8182,9 @@
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J274" s="1"/>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <f t="shared" si="8"/>
         <v>33</v>
@@ -7928,8 +8209,9 @@
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J275" s="1"/>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <f t="shared" si="8"/>
         <v>33</v>
@@ -7954,8 +8236,9 @@
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J276" s="1"/>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <f t="shared" si="8"/>
         <v>34</v>
@@ -7980,8 +8263,9 @@
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J277" s="1"/>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <f t="shared" si="8"/>
         <v>34</v>
@@ -8006,8 +8290,9 @@
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J278" s="1"/>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <f t="shared" si="8"/>
         <v>34</v>
@@ -8032,8 +8317,9 @@
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J279" s="1"/>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <f t="shared" si="8"/>
         <v>34</v>
@@ -8058,8 +8344,9 @@
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J280" s="1"/>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <f t="shared" si="8"/>
         <v>34</v>
@@ -8084,8 +8371,9 @@
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J281" s="1"/>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <f t="shared" si="8"/>
         <v>34</v>
@@ -8110,8 +8398,9 @@
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J282" s="1"/>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <f t="shared" si="8"/>
         <v>34</v>
@@ -8136,8 +8425,9 @@
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J283" s="1"/>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <f t="shared" si="8"/>
         <v>34</v>
@@ -8162,8 +8452,9 @@
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J284" s="1"/>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <f t="shared" si="8"/>
         <v>35</v>
@@ -8188,8 +8479,9 @@
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J285" s="1"/>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <f t="shared" si="8"/>
         <v>35</v>
@@ -8214,8 +8506,9 @@
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J286" s="1"/>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <f t="shared" si="8"/>
         <v>35</v>
@@ -8240,8 +8533,9 @@
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J287" s="1"/>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <f t="shared" si="8"/>
         <v>35</v>
@@ -8266,8 +8560,9 @@
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J288" s="1"/>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <f t="shared" si="8"/>
         <v>35</v>
@@ -8292,8 +8587,9 @@
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J289" s="1"/>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <f t="shared" si="8"/>
         <v>35</v>
@@ -8318,8 +8614,9 @@
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J290" s="1"/>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <f t="shared" si="8"/>
         <v>35</v>
@@ -8344,8 +8641,9 @@
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J291" s="1"/>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <f t="shared" si="8"/>
         <v>35</v>
@@ -8370,8 +8668,9 @@
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J292" s="1"/>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <f t="shared" si="8"/>
         <v>36</v>
@@ -8396,8 +8695,9 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J293" s="1"/>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <f t="shared" si="8"/>
         <v>36</v>
@@ -8422,8 +8722,9 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J294" s="1"/>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <f t="shared" si="8"/>
         <v>36</v>
@@ -8448,8 +8749,9 @@
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J295" s="1"/>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <f t="shared" si="8"/>
         <v>36</v>
@@ -8474,8 +8776,9 @@
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J296" s="1"/>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <f t="shared" si="8"/>
         <v>36</v>
@@ -8500,8 +8803,9 @@
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J297" s="1"/>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <f t="shared" si="8"/>
         <v>36</v>
@@ -8526,8 +8830,9 @@
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J298" s="1"/>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <f t="shared" si="8"/>
         <v>36</v>
@@ -8552,8 +8857,9 @@
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J299" s="1"/>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <f t="shared" si="8"/>
         <v>36</v>
@@ -8578,8 +8884,9 @@
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J300" s="1"/>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <f t="shared" si="8"/>
         <v>37</v>
@@ -8604,8 +8911,9 @@
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J301" s="1"/>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <f t="shared" si="8"/>
         <v>37</v>
@@ -8630,8 +8938,9 @@
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J302" s="1"/>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <f t="shared" si="8"/>
         <v>37</v>
@@ -8656,8 +8965,9 @@
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J303" s="1"/>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <f t="shared" si="8"/>
         <v>37</v>
@@ -8682,8 +8992,9 @@
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J304" s="1"/>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <f t="shared" si="8"/>
         <v>37</v>
@@ -8708,8 +9019,9 @@
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J305" s="1"/>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <f t="shared" si="8"/>
         <v>37</v>
@@ -8734,8 +9046,9 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J306" s="1"/>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <f t="shared" si="8"/>
         <v>37</v>
@@ -8760,8 +9073,9 @@
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J307" s="1"/>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <f t="shared" si="8"/>
         <v>37</v>
@@ -8786,8 +9100,9 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J308" s="1"/>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <f t="shared" si="8"/>
         <v>38</v>
@@ -8812,8 +9127,9 @@
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J309" s="1"/>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <f t="shared" si="8"/>
         <v>38</v>
@@ -8838,8 +9154,9 @@
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J310" s="1"/>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <f t="shared" si="8"/>
         <v>38</v>
@@ -8864,8 +9181,9 @@
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J311" s="1"/>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <f t="shared" si="8"/>
         <v>38</v>
@@ -8890,8 +9208,9 @@
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J312" s="1"/>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <f t="shared" si="8"/>
         <v>38</v>
@@ -8916,8 +9235,9 @@
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J313" s="1"/>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <f t="shared" si="8"/>
         <v>38</v>
@@ -8942,8 +9262,9 @@
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J314" s="1"/>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <f t="shared" si="8"/>
         <v>38</v>
@@ -8968,8 +9289,9 @@
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J315" s="1"/>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <f t="shared" si="8"/>
         <v>38</v>
@@ -8994,8 +9316,9 @@
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J316" s="1"/>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <f t="shared" si="8"/>
         <v>39</v>
@@ -9020,8 +9343,9 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J317" s="1"/>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <f t="shared" si="8"/>
         <v>39</v>
@@ -9046,8 +9370,9 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J318" s="1"/>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <f t="shared" si="8"/>
         <v>39</v>
@@ -9072,8 +9397,9 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J319" s="1"/>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <f t="shared" si="8"/>
         <v>39</v>
@@ -9098,8 +9424,9 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J320" s="1"/>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <f t="shared" si="8"/>
         <v>39</v>
@@ -9124,8 +9451,9 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J321" s="1"/>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <f t="shared" si="8"/>
         <v>39</v>
@@ -9150,8 +9478,9 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J322" s="1"/>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <f t="shared" si="8"/>
         <v>39</v>
@@ -9176,8 +9505,9 @@
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J323" s="1"/>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <f t="shared" si="8"/>
         <v>39</v>
@@ -9202,8 +9532,9 @@
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J324" s="1"/>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <f t="shared" ref="A325:A388" si="10">_xlfn.FLOOR.MATH((ROW(A325)-5)/MaxUnits)</f>
         <v>40</v>
@@ -9228,8 +9559,9 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J325" s="1"/>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <f t="shared" si="10"/>
         <v>40</v>
@@ -9254,8 +9586,9 @@
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J326" s="1"/>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <f t="shared" si="10"/>
         <v>40</v>
@@ -9280,8 +9613,9 @@
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J327" s="1"/>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <f t="shared" si="10"/>
         <v>40</v>
@@ -9306,8 +9640,9 @@
       <c r="G328" s="1"/>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J328" s="1"/>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <f t="shared" si="10"/>
         <v>40</v>
@@ -9332,8 +9667,9 @@
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J329" s="1"/>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <f t="shared" si="10"/>
         <v>40</v>
@@ -9358,8 +9694,9 @@
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J330" s="1"/>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <f t="shared" si="10"/>
         <v>40</v>
@@ -9384,8 +9721,9 @@
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J331" s="1"/>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <f t="shared" si="10"/>
         <v>40</v>
@@ -9410,8 +9748,9 @@
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J332" s="1"/>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <f t="shared" si="10"/>
         <v>41</v>
@@ -9436,8 +9775,9 @@
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J333" s="1"/>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <f t="shared" si="10"/>
         <v>41</v>
@@ -9462,8 +9802,9 @@
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J334" s="1"/>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <f t="shared" si="10"/>
         <v>41</v>
@@ -9488,8 +9829,9 @@
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J335" s="1"/>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <f t="shared" si="10"/>
         <v>41</v>
@@ -9514,8 +9856,9 @@
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J336" s="1"/>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <f t="shared" si="10"/>
         <v>41</v>
@@ -9540,8 +9883,9 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J337" s="1"/>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <f t="shared" si="10"/>
         <v>41</v>
@@ -9566,8 +9910,9 @@
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J338" s="1"/>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <f t="shared" si="10"/>
         <v>41</v>
@@ -9592,8 +9937,9 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J339" s="1"/>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <f t="shared" si="10"/>
         <v>41</v>
@@ -9618,8 +9964,9 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J340" s="1"/>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <f t="shared" si="10"/>
         <v>42</v>
@@ -9644,8 +9991,9 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J341" s="1"/>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <f t="shared" si="10"/>
         <v>42</v>
@@ -9670,8 +10018,9 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J342" s="1"/>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <f t="shared" si="10"/>
         <v>42</v>
@@ -9696,8 +10045,9 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J343" s="1"/>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <f t="shared" si="10"/>
         <v>42</v>
@@ -9722,8 +10072,9 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J344" s="1"/>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <f t="shared" si="10"/>
         <v>42</v>
@@ -9748,8 +10099,9 @@
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J345" s="1"/>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <f t="shared" si="10"/>
         <v>42</v>
@@ -9774,8 +10126,9 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J346" s="1"/>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <f t="shared" si="10"/>
         <v>42</v>
@@ -9800,8 +10153,9 @@
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J347" s="1"/>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <f t="shared" si="10"/>
         <v>42</v>
@@ -9826,8 +10180,9 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J348" s="1"/>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <f t="shared" si="10"/>
         <v>43</v>
@@ -9852,8 +10207,9 @@
       <c r="G349" s="1"/>
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J349" s="1"/>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <f t="shared" si="10"/>
         <v>43</v>
@@ -9878,8 +10234,9 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J350" s="1"/>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <f t="shared" si="10"/>
         <v>43</v>
@@ -9904,8 +10261,9 @@
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J351" s="1"/>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <f t="shared" si="10"/>
         <v>43</v>
@@ -9930,8 +10288,9 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J352" s="1"/>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <f t="shared" si="10"/>
         <v>43</v>
@@ -9956,8 +10315,9 @@
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J353" s="1"/>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <f t="shared" si="10"/>
         <v>43</v>
@@ -9982,8 +10342,9 @@
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J354" s="1"/>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <f t="shared" si="10"/>
         <v>43</v>
@@ -10008,8 +10369,9 @@
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J355" s="1"/>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <f t="shared" si="10"/>
         <v>43</v>
@@ -10034,8 +10396,9 @@
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J356" s="1"/>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <f t="shared" si="10"/>
         <v>44</v>
@@ -10060,8 +10423,9 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J357" s="1"/>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <f t="shared" si="10"/>
         <v>44</v>
@@ -10086,8 +10450,9 @@
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J358" s="1"/>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <f t="shared" si="10"/>
         <v>44</v>
@@ -10112,8 +10477,9 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J359" s="1"/>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <f t="shared" si="10"/>
         <v>44</v>
@@ -10138,8 +10504,9 @@
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J360" s="1"/>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <f t="shared" si="10"/>
         <v>44</v>
@@ -10164,8 +10531,9 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J361" s="1"/>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <f t="shared" si="10"/>
         <v>44</v>
@@ -10190,8 +10558,9 @@
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J362" s="1"/>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <f t="shared" si="10"/>
         <v>44</v>
@@ -10216,8 +10585,9 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J363" s="1"/>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <f t="shared" si="10"/>
         <v>44</v>
@@ -10242,8 +10612,9 @@
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J364" s="1"/>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <f t="shared" si="10"/>
         <v>45</v>
@@ -10268,8 +10639,9 @@
       <c r="G365" s="1"/>
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J365" s="1"/>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <f t="shared" si="10"/>
         <v>45</v>
@@ -10294,8 +10666,9 @@
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J366" s="1"/>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <f t="shared" si="10"/>
         <v>45</v>
@@ -10320,8 +10693,9 @@
       <c r="G367" s="1"/>
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J367" s="1"/>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <f t="shared" si="10"/>
         <v>45</v>
@@ -10346,8 +10720,9 @@
       <c r="G368" s="1"/>
       <c r="H368" s="1"/>
       <c r="I368" s="1"/>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J368" s="1"/>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <f t="shared" si="10"/>
         <v>45</v>
@@ -10372,8 +10747,9 @@
       <c r="G369" s="1"/>
       <c r="H369" s="1"/>
       <c r="I369" s="1"/>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J369" s="1"/>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <f t="shared" si="10"/>
         <v>45</v>
@@ -10398,8 +10774,9 @@
       <c r="G370" s="1"/>
       <c r="H370" s="1"/>
       <c r="I370" s="1"/>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J370" s="1"/>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <f t="shared" si="10"/>
         <v>45</v>
@@ -10424,8 +10801,9 @@
       <c r="G371" s="1"/>
       <c r="H371" s="1"/>
       <c r="I371" s="1"/>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J371" s="1"/>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <f t="shared" si="10"/>
         <v>45</v>
@@ -10450,8 +10828,9 @@
       <c r="G372" s="1"/>
       <c r="H372" s="1"/>
       <c r="I372" s="1"/>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J372" s="1"/>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <f t="shared" si="10"/>
         <v>46</v>
@@ -10476,8 +10855,9 @@
       <c r="G373" s="1"/>
       <c r="H373" s="1"/>
       <c r="I373" s="1"/>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J373" s="1"/>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <f t="shared" si="10"/>
         <v>46</v>
@@ -10502,8 +10882,9 @@
       <c r="G374" s="1"/>
       <c r="H374" s="1"/>
       <c r="I374" s="1"/>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J374" s="1"/>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <f t="shared" si="10"/>
         <v>46</v>
@@ -10528,8 +10909,9 @@
       <c r="G375" s="1"/>
       <c r="H375" s="1"/>
       <c r="I375" s="1"/>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J375" s="1"/>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <f t="shared" si="10"/>
         <v>46</v>
@@ -10554,8 +10936,9 @@
       <c r="G376" s="1"/>
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J376" s="1"/>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <f t="shared" si="10"/>
         <v>46</v>
@@ -10580,8 +10963,9 @@
       <c r="G377" s="1"/>
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J377" s="1"/>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <f t="shared" si="10"/>
         <v>46</v>
@@ -10606,8 +10990,9 @@
       <c r="G378" s="1"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J378" s="1"/>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <f t="shared" si="10"/>
         <v>46</v>
@@ -10632,8 +11017,9 @@
       <c r="G379" s="1"/>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J379" s="1"/>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <f t="shared" si="10"/>
         <v>46</v>
@@ -10658,8 +11044,9 @@
       <c r="G380" s="1"/>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J380" s="1"/>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <f t="shared" si="10"/>
         <v>47</v>
@@ -10684,8 +11071,9 @@
       <c r="G381" s="1"/>
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J381" s="1"/>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <f t="shared" si="10"/>
         <v>47</v>
@@ -10710,8 +11098,9 @@
       <c r="G382" s="1"/>
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J382" s="1"/>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <f t="shared" si="10"/>
         <v>47</v>
@@ -10736,8 +11125,9 @@
       <c r="G383" s="1"/>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J383" s="1"/>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <f t="shared" si="10"/>
         <v>47</v>
@@ -10762,8 +11152,9 @@
       <c r="G384" s="1"/>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J384" s="1"/>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <f t="shared" si="10"/>
         <v>47</v>
@@ -10788,8 +11179,9 @@
       <c r="G385" s="1"/>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J385" s="1"/>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <f t="shared" si="10"/>
         <v>47</v>
@@ -10814,8 +11206,9 @@
       <c r="G386" s="1"/>
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J386" s="1"/>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <f t="shared" si="10"/>
         <v>47</v>
@@ -10840,8 +11233,9 @@
       <c r="G387" s="1"/>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J387" s="1"/>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <f t="shared" si="10"/>
         <v>47</v>
@@ -10866,8 +11260,9 @@
       <c r="G388" s="1"/>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J388" s="1"/>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <f t="shared" ref="A389:A424" si="12">_xlfn.FLOOR.MATH((ROW(A389)-5)/MaxUnits)</f>
         <v>48</v>
@@ -10892,8 +11287,9 @@
       <c r="G389" s="1"/>
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J389" s="1"/>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <f t="shared" si="12"/>
         <v>48</v>
@@ -10918,8 +11314,9 @@
       <c r="G390" s="1"/>
       <c r="H390" s="1"/>
       <c r="I390" s="1"/>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J390" s="1"/>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <f t="shared" si="12"/>
         <v>48</v>
@@ -10944,8 +11341,9 @@
       <c r="G391" s="1"/>
       <c r="H391" s="1"/>
       <c r="I391" s="1"/>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J391" s="1"/>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <f t="shared" si="12"/>
         <v>48</v>
@@ -10970,8 +11368,9 @@
       <c r="G392" s="1"/>
       <c r="H392" s="1"/>
       <c r="I392" s="1"/>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J392" s="1"/>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <f t="shared" si="12"/>
         <v>48</v>
@@ -10996,8 +11395,9 @@
       <c r="G393" s="1"/>
       <c r="H393" s="1"/>
       <c r="I393" s="1"/>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J393" s="1"/>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <f t="shared" si="12"/>
         <v>48</v>
@@ -11022,8 +11422,9 @@
       <c r="G394" s="1"/>
       <c r="H394" s="1"/>
       <c r="I394" s="1"/>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J394" s="1"/>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <f t="shared" si="12"/>
         <v>48</v>
@@ -11048,8 +11449,9 @@
       <c r="G395" s="1"/>
       <c r="H395" s="1"/>
       <c r="I395" s="1"/>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J395" s="1"/>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <f t="shared" si="12"/>
         <v>48</v>
@@ -11074,8 +11476,9 @@
       <c r="G396" s="1"/>
       <c r="H396" s="1"/>
       <c r="I396" s="1"/>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J396" s="1"/>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <f t="shared" si="12"/>
         <v>49</v>
@@ -11100,8 +11503,9 @@
       <c r="G397" s="1"/>
       <c r="H397" s="1"/>
       <c r="I397" s="1"/>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J397" s="1"/>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <f t="shared" si="12"/>
         <v>49</v>
@@ -11126,8 +11530,9 @@
       <c r="G398" s="1"/>
       <c r="H398" s="1"/>
       <c r="I398" s="1"/>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J398" s="1"/>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <f t="shared" si="12"/>
         <v>49</v>
@@ -11152,8 +11557,9 @@
       <c r="G399" s="1"/>
       <c r="H399" s="1"/>
       <c r="I399" s="1"/>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J399" s="1"/>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <f t="shared" si="12"/>
         <v>49</v>
@@ -11178,8 +11584,9 @@
       <c r="G400" s="1"/>
       <c r="H400" s="1"/>
       <c r="I400" s="1"/>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J400" s="1"/>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <f t="shared" si="12"/>
         <v>49</v>
@@ -11204,8 +11611,9 @@
       <c r="G401" s="1"/>
       <c r="H401" s="1"/>
       <c r="I401" s="1"/>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J401" s="1"/>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <f t="shared" si="12"/>
         <v>49</v>
@@ -11230,8 +11638,9 @@
       <c r="G402" s="1"/>
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J402" s="1"/>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <f t="shared" si="12"/>
         <v>49</v>
@@ -11256,8 +11665,9 @@
       <c r="G403" s="1"/>
       <c r="H403" s="1"/>
       <c r="I403" s="1"/>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J403" s="1"/>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <f t="shared" si="12"/>
         <v>49</v>
@@ -11282,8 +11692,9 @@
       <c r="G404" s="1"/>
       <c r="H404" s="1"/>
       <c r="I404" s="1"/>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J404" s="1"/>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <f t="shared" si="12"/>
         <v>50</v>
@@ -11308,8 +11719,9 @@
       <c r="G405" s="1"/>
       <c r="H405" s="1"/>
       <c r="I405" s="1"/>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J405" s="1"/>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <f t="shared" si="12"/>
         <v>50</v>
@@ -11334,8 +11746,9 @@
       <c r="G406" s="1"/>
       <c r="H406" s="1"/>
       <c r="I406" s="1"/>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J406" s="1"/>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <f t="shared" si="12"/>
         <v>50</v>
@@ -11360,8 +11773,9 @@
       <c r="G407" s="1"/>
       <c r="H407" s="1"/>
       <c r="I407" s="1"/>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J407" s="1"/>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <f t="shared" si="12"/>
         <v>50</v>
@@ -11386,8 +11800,9 @@
       <c r="G408" s="1"/>
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J408" s="1"/>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <f t="shared" si="12"/>
         <v>50</v>
@@ -11412,8 +11827,9 @@
       <c r="G409" s="1"/>
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J409" s="1"/>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <f t="shared" si="12"/>
         <v>50</v>
@@ -11438,8 +11854,9 @@
       <c r="G410" s="1"/>
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J410" s="1"/>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <f t="shared" si="12"/>
         <v>50</v>
@@ -11464,8 +11881,9 @@
       <c r="G411" s="1"/>
       <c r="H411" s="1"/>
       <c r="I411" s="1"/>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J411" s="1"/>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <f t="shared" si="12"/>
         <v>50</v>
@@ -11490,8 +11908,9 @@
       <c r="G412" s="1"/>
       <c r="H412" s="1"/>
       <c r="I412" s="1"/>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J412" s="1"/>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <f t="shared" si="12"/>
         <v>51</v>
@@ -11516,8 +11935,9 @@
       <c r="G413" s="1"/>
       <c r="H413" s="1"/>
       <c r="I413" s="1"/>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J413" s="1"/>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <f t="shared" si="12"/>
         <v>51</v>
@@ -11542,8 +11962,9 @@
       <c r="G414" s="1"/>
       <c r="H414" s="1"/>
       <c r="I414" s="1"/>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J414" s="1"/>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <f t="shared" si="12"/>
         <v>51</v>
@@ -11568,8 +11989,9 @@
       <c r="G415" s="1"/>
       <c r="H415" s="1"/>
       <c r="I415" s="1"/>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J415" s="1"/>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <f t="shared" si="12"/>
         <v>51</v>
@@ -11594,8 +12016,9 @@
       <c r="G416" s="1"/>
       <c r="H416" s="1"/>
       <c r="I416" s="1"/>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J416" s="1"/>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <f t="shared" si="12"/>
         <v>51</v>
@@ -11620,8 +12043,9 @@
       <c r="G417" s="1"/>
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J417" s="1"/>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <f t="shared" si="12"/>
         <v>51</v>
@@ -11646,8 +12070,9 @@
       <c r="G418" s="1"/>
       <c r="H418" s="1"/>
       <c r="I418" s="1"/>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J418" s="1"/>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <f t="shared" si="12"/>
         <v>51</v>
@@ -11672,8 +12097,9 @@
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
       <c r="I419" s="1"/>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J419" s="1"/>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <f t="shared" si="12"/>
         <v>51</v>
@@ -11698,8 +12124,9 @@
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
       <c r="I420" s="1"/>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J420" s="1"/>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <f t="shared" si="12"/>
         <v>52</v>
@@ -11724,8 +12151,9 @@
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
       <c r="I421" s="1"/>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J421" s="1"/>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <f t="shared" si="12"/>
         <v>52</v>
@@ -11750,8 +12178,9 @@
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
       <c r="I422" s="1"/>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J422" s="1"/>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <f t="shared" si="12"/>
         <v>52</v>
@@ -11776,8 +12205,9 @@
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
       <c r="I423" s="1"/>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J423" s="1"/>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <f t="shared" si="12"/>
         <v>52</v>
@@ -11802,8 +12232,9 @@
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
       <c r="I424" s="1"/>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J424" s="1"/>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="14">
         <f t="shared" ref="A425:A456" si="14">_xlfn.FLOOR.MATH((ROW(A425)-5)/MaxUnits)</f>
         <v>52</v>
@@ -11828,8 +12259,9 @@
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
       <c r="I425" s="1"/>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J425" s="1"/>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="14">
         <f t="shared" si="14"/>
         <v>52</v>
@@ -11854,8 +12286,9 @@
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
       <c r="I426" s="1"/>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J426" s="1"/>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="14">
         <f t="shared" si="14"/>
         <v>52</v>
@@ -11880,8 +12313,9 @@
       <c r="G427" s="1"/>
       <c r="H427" s="1"/>
       <c r="I427" s="1"/>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J427" s="1"/>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="14">
         <f t="shared" si="14"/>
         <v>52</v>
@@ -11906,8 +12340,9 @@
       <c r="G428" s="1"/>
       <c r="H428" s="1"/>
       <c r="I428" s="1"/>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J428" s="1"/>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="14">
         <f t="shared" si="14"/>
         <v>53</v>
@@ -11932,8 +12367,9 @@
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
       <c r="I429" s="1"/>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J429" s="1"/>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="14">
         <f t="shared" si="14"/>
         <v>53</v>
@@ -11958,8 +12394,9 @@
       <c r="G430" s="1"/>
       <c r="H430" s="1"/>
       <c r="I430" s="1"/>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J430" s="1"/>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="14">
         <f t="shared" si="14"/>
         <v>53</v>
@@ -11984,8 +12421,9 @@
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
       <c r="I431" s="1"/>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J431" s="1"/>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="14">
         <f t="shared" si="14"/>
         <v>53</v>
@@ -12010,8 +12448,9 @@
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
       <c r="I432" s="1"/>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J432" s="1"/>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="14">
         <f t="shared" si="14"/>
         <v>53</v>
@@ -12036,8 +12475,9 @@
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
       <c r="I433" s="1"/>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J433" s="1"/>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="14">
         <f t="shared" si="14"/>
         <v>53</v>
@@ -12062,8 +12502,9 @@
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
       <c r="I434" s="1"/>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J434" s="1"/>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="14">
         <f t="shared" si="14"/>
         <v>53</v>
@@ -12088,8 +12529,9 @@
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
       <c r="I435" s="1"/>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J435" s="1"/>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" s="14">
         <f t="shared" si="14"/>
         <v>53</v>
@@ -12114,8 +12556,9 @@
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
       <c r="I436" s="1"/>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J436" s="1"/>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" s="14">
         <f t="shared" si="14"/>
         <v>54</v>
@@ -12140,8 +12583,9 @@
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
       <c r="I437" s="1"/>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J437" s="1"/>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="14">
         <f t="shared" si="14"/>
         <v>54</v>
@@ -12166,8 +12610,9 @@
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
       <c r="I438" s="1"/>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J438" s="1"/>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" s="14">
         <f t="shared" si="14"/>
         <v>54</v>
@@ -12192,8 +12637,9 @@
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
       <c r="I439" s="1"/>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J439" s="1"/>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" s="14">
         <f t="shared" si="14"/>
         <v>54</v>
@@ -12218,8 +12664,9 @@
       <c r="G440" s="1"/>
       <c r="H440" s="1"/>
       <c r="I440" s="1"/>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J440" s="1"/>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" s="14">
         <f t="shared" si="14"/>
         <v>54</v>
@@ -12244,8 +12691,9 @@
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
       <c r="I441" s="1"/>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J441" s="1"/>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" s="14">
         <f t="shared" si="14"/>
         <v>54</v>
@@ -12270,8 +12718,9 @@
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
       <c r="I442" s="1"/>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J442" s="1"/>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="14">
         <f t="shared" si="14"/>
         <v>54</v>
@@ -12296,8 +12745,9 @@
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
       <c r="I443" s="1"/>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J443" s="1"/>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="14">
         <f t="shared" si="14"/>
         <v>54</v>
@@ -12322,8 +12772,9 @@
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
       <c r="I444" s="1"/>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J444" s="1"/>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" s="14">
         <f t="shared" si="14"/>
         <v>55</v>
@@ -12348,8 +12799,9 @@
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
       <c r="I445" s="1"/>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J445" s="1"/>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" s="14">
         <f t="shared" si="14"/>
         <v>55</v>
@@ -12374,8 +12826,9 @@
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
       <c r="I446" s="1"/>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J446" s="1"/>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" s="14">
         <f t="shared" si="14"/>
         <v>55</v>
@@ -12400,8 +12853,9 @@
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
       <c r="I447" s="1"/>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J447" s="1"/>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" s="14">
         <f t="shared" si="14"/>
         <v>55</v>
@@ -12426,8 +12880,9 @@
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
       <c r="I448" s="1"/>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J448" s="1"/>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" s="14">
         <f t="shared" si="14"/>
         <v>55</v>
@@ -12452,8 +12907,9 @@
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
       <c r="I449" s="1"/>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J449" s="1"/>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" s="14">
         <f t="shared" si="14"/>
         <v>55</v>
@@ -12478,8 +12934,9 @@
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
       <c r="I450" s="1"/>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J450" s="1"/>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" s="14">
         <f t="shared" si="14"/>
         <v>55</v>
@@ -12504,8 +12961,9 @@
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
       <c r="I451" s="1"/>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J451" s="1"/>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" s="14">
         <f t="shared" si="14"/>
         <v>55</v>
@@ -12530,8 +12988,9 @@
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
       <c r="I452" s="1"/>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J452" s="1"/>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A453" s="14">
         <f t="shared" si="14"/>
         <v>56</v>
@@ -12556,8 +13015,9 @@
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
       <c r="I453" s="1"/>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J453" s="1"/>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454" s="14">
         <f t="shared" si="14"/>
         <v>56</v>
@@ -12582,8 +13042,9 @@
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
       <c r="I454" s="1"/>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J454" s="1"/>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" s="14">
         <f t="shared" si="14"/>
         <v>56</v>
@@ -12608,8 +13069,9 @@
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
       <c r="I455" s="1"/>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J455" s="1"/>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" s="14">
         <f t="shared" si="14"/>
         <v>56</v>
@@ -12634,8 +13096,9 @@
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
       <c r="I456" s="1"/>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J456" s="1"/>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" s="14">
         <f t="shared" ref="A457:A484" si="16">_xlfn.FLOOR.MATH((ROW(A457)-5)/MaxUnits)</f>
         <v>56</v>
@@ -12660,8 +13123,9 @@
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
       <c r="I457" s="1"/>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J457" s="1"/>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" s="14">
         <f t="shared" si="16"/>
         <v>56</v>
@@ -12686,8 +13150,9 @@
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
       <c r="I458" s="1"/>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J458" s="1"/>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A459" s="14">
         <f t="shared" si="16"/>
         <v>56</v>
@@ -12712,8 +13177,9 @@
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
       <c r="I459" s="1"/>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J459" s="1"/>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" s="14">
         <f t="shared" si="16"/>
         <v>56</v>
@@ -12738,8 +13204,9 @@
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
       <c r="I460" s="1"/>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J460" s="1"/>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" s="14">
         <f t="shared" si="16"/>
         <v>57</v>
@@ -12764,8 +13231,9 @@
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
       <c r="I461" s="1"/>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J461" s="1"/>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" s="14">
         <f t="shared" si="16"/>
         <v>57</v>
@@ -12790,8 +13258,9 @@
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
       <c r="I462" s="1"/>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J462" s="1"/>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A463" s="14">
         <f t="shared" si="16"/>
         <v>57</v>
@@ -12816,8 +13285,9 @@
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
       <c r="I463" s="1"/>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J463" s="1"/>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" s="14">
         <f t="shared" si="16"/>
         <v>57</v>
@@ -12842,8 +13312,9 @@
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
       <c r="I464" s="1"/>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J464" s="1"/>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A465" s="14">
         <f t="shared" si="16"/>
         <v>57</v>
@@ -12868,8 +13339,9 @@
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
       <c r="I465" s="1"/>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J465" s="1"/>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" s="14">
         <f t="shared" si="16"/>
         <v>57</v>
@@ -12894,8 +13366,9 @@
       <c r="G466" s="1"/>
       <c r="H466" s="1"/>
       <c r="I466" s="1"/>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J466" s="1"/>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" s="14">
         <f t="shared" si="16"/>
         <v>57</v>
@@ -12920,8 +13393,9 @@
       <c r="G467" s="1"/>
       <c r="H467" s="1"/>
       <c r="I467" s="1"/>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J467" s="1"/>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" s="14">
         <f t="shared" si="16"/>
         <v>57</v>
@@ -12946,8 +13420,9 @@
       <c r="G468" s="1"/>
       <c r="H468" s="1"/>
       <c r="I468" s="1"/>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J468" s="1"/>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A469" s="14">
         <f t="shared" si="16"/>
         <v>58</v>
@@ -12972,8 +13447,9 @@
       <c r="G469" s="1"/>
       <c r="H469" s="1"/>
       <c r="I469" s="1"/>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J469" s="1"/>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470" s="14">
         <f t="shared" si="16"/>
         <v>58</v>
@@ -12998,8 +13474,9 @@
       <c r="G470" s="1"/>
       <c r="H470" s="1"/>
       <c r="I470" s="1"/>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J470" s="1"/>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" s="14">
         <f t="shared" si="16"/>
         <v>58</v>
@@ -13024,8 +13501,9 @@
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
       <c r="I471" s="1"/>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J471" s="1"/>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" s="14">
         <f t="shared" si="16"/>
         <v>58</v>
@@ -13050,8 +13528,9 @@
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
       <c r="I472" s="1"/>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J472" s="1"/>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A473" s="14">
         <f t="shared" si="16"/>
         <v>58</v>
@@ -13076,8 +13555,9 @@
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
       <c r="I473" s="1"/>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J473" s="1"/>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" s="14">
         <f t="shared" si="16"/>
         <v>58</v>
@@ -13102,8 +13582,9 @@
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
       <c r="I474" s="1"/>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J474" s="1"/>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" s="14">
         <f t="shared" si="16"/>
         <v>58</v>
@@ -13128,8 +13609,9 @@
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
       <c r="I475" s="1"/>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J475" s="1"/>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476" s="14">
         <f t="shared" si="16"/>
         <v>58</v>
@@ -13154,8 +13636,9 @@
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
       <c r="I476" s="1"/>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J476" s="1"/>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A477" s="14">
         <f t="shared" si="16"/>
         <v>59</v>
@@ -13180,8 +13663,9 @@
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
       <c r="I477" s="1"/>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J477" s="1"/>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478" s="14">
         <f t="shared" si="16"/>
         <v>59</v>
@@ -13206,8 +13690,9 @@
       <c r="G478" s="1"/>
       <c r="H478" s="1"/>
       <c r="I478" s="1"/>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J478" s="1"/>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479" s="14">
         <f t="shared" si="16"/>
         <v>59</v>
@@ -13232,8 +13717,9 @@
       <c r="G479" s="1"/>
       <c r="H479" s="1"/>
       <c r="I479" s="1"/>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J479" s="1"/>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480" s="14">
         <f t="shared" si="16"/>
         <v>59</v>
@@ -13258,8 +13744,9 @@
       <c r="G480" s="1"/>
       <c r="H480" s="1"/>
       <c r="I480" s="1"/>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J480" s="1"/>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" s="14">
         <f t="shared" si="16"/>
         <v>59</v>
@@ -13284,8 +13771,9 @@
       <c r="G481" s="1"/>
       <c r="H481" s="1"/>
       <c r="I481" s="1"/>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J481" s="1"/>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" s="14">
         <f t="shared" si="16"/>
         <v>59</v>
@@ -13310,8 +13798,9 @@
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
       <c r="I482" s="1"/>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J482" s="1"/>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" s="14">
         <f t="shared" si="16"/>
         <v>59</v>
@@ -13336,8 +13825,9 @@
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
       <c r="I483" s="1"/>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J483" s="1"/>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" s="14">
         <f t="shared" si="16"/>
         <v>59</v>
@@ -13362,6 +13852,7 @@
       <c r="G484" s="1"/>
       <c r="H484" s="1"/>
       <c r="I484" s="1"/>
+      <c r="J484" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
